--- a/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.7243134153799</v>
+        <v>95.29638151216388</v>
       </c>
       <c r="D2" t="n">
-        <v>20.58932623810993</v>
+        <v>19.16654392633813</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.81827111542594</v>
+        <v>91.77856388008605</v>
       </c>
       <c r="D3" t="n">
-        <v>19.40356788787163</v>
+        <v>19.7758189121584</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.87080323271474</v>
+        <v>90.18736344244284</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3849678744544</v>
+        <v>18.00442214415921</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.93612560863372</v>
+        <v>92.92552587876531</v>
       </c>
       <c r="D5" t="n">
-        <v>17.67268553383978</v>
+        <v>19.45239849673178</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.47584094551146</v>
+        <v>87.03973658252458</v>
       </c>
       <c r="D6" t="n">
-        <v>17.63240891986896</v>
+        <v>19.75912699980224</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.44652378323343</v>
+        <v>87.07030976178073</v>
       </c>
       <c r="D7" t="n">
-        <v>19.36842480872806</v>
+        <v>18.73320322325042</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>89.77022683216791</v>
+        <v>88.15567477896892</v>
       </c>
       <c r="D8" t="n">
-        <v>21.6567806760877</v>
+        <v>20.28862009709541</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>90.26603559339783</v>
+        <v>81.34105270081209</v>
       </c>
       <c r="D9" t="n">
-        <v>19.11942497999533</v>
+        <v>18.42620862158093</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.08411610889482</v>
+        <v>82.61139341795405</v>
       </c>
       <c r="D10" t="n">
-        <v>21.03937367179914</v>
+        <v>20.16796198264565</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.98593853757473</v>
+        <v>85.14458783819184</v>
       </c>
       <c r="D11" t="n">
-        <v>19.13355663013774</v>
+        <v>17.14525133805805</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.39046323714454</v>
+        <v>81.84317501741037</v>
       </c>
       <c r="D12" t="n">
-        <v>21.33323407354247</v>
+        <v>19.25419194778284</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.79724383926185</v>
+        <v>80.01552743199213</v>
       </c>
       <c r="D13" t="n">
-        <v>19.13229476596428</v>
+        <v>18.64031749735839</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.52570277057198</v>
+        <v>79.44533688712322</v>
       </c>
       <c r="D14" t="n">
-        <v>17.73776890975765</v>
+        <v>19.85883556806589</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.60304072203535</v>
+        <v>81.56761432230503</v>
       </c>
       <c r="D15" t="n">
-        <v>19.84357828772002</v>
+        <v>19.31915150331409</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.29703993693532</v>
+        <v>79.85708601494825</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28628723320335</v>
+        <v>18.79864832271872</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.40353518412616</v>
+        <v>72.923874923661</v>
       </c>
       <c r="D17" t="n">
-        <v>18.30860199222847</v>
+        <v>17.07335112780405</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.6453825135148</v>
+        <v>77.47848340522798</v>
       </c>
       <c r="D18" t="n">
-        <v>18.92867566801423</v>
+        <v>17.02569741408641</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.20243033745751</v>
+        <v>76.57035419075291</v>
       </c>
       <c r="D19" t="n">
-        <v>20.44887517937254</v>
+        <v>16.19254447510808</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.77014415061174</v>
+        <v>71.83327375741639</v>
       </c>
       <c r="D20" t="n">
-        <v>19.69866515676282</v>
+        <v>17.60471996299071</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.98545552939594</v>
+        <v>71.86391160274243</v>
       </c>
       <c r="D21" t="n">
-        <v>17.79482680945187</v>
+        <v>16.83154268838204</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>73.66659839330303</v>
+        <v>76.73776566384495</v>
       </c>
       <c r="D22" t="n">
-        <v>19.8459494857238</v>
+        <v>16.44718006867355</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.14995639461313</v>
+        <v>66.48515117667756</v>
       </c>
       <c r="D23" t="n">
-        <v>18.77845216282902</v>
+        <v>18.3596446833209</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.66016919943598</v>
+        <v>71.0954037234348</v>
       </c>
       <c r="D24" t="n">
-        <v>16.22971172728792</v>
+        <v>17.79134039030222</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.62297383063377</v>
+        <v>68.34773959706317</v>
       </c>
       <c r="D25" t="n">
-        <v>18.16272281895717</v>
+        <v>18.21488218607672</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.08530826221381</v>
+        <v>66.02073715351392</v>
       </c>
       <c r="D26" t="n">
-        <v>22.24255142741861</v>
+        <v>19.68933050658658</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.4305254141988</v>
+        <v>66.10120471016008</v>
       </c>
       <c r="D27" t="n">
-        <v>19.47709198182064</v>
+        <v>19.50964987022361</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.84824825645526</v>
+        <v>63.51690865379273</v>
       </c>
       <c r="D28" t="n">
-        <v>18.54572235767565</v>
+        <v>20.28827962420725</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.98756935740764</v>
+        <v>64.10834077038268</v>
       </c>
       <c r="D29" t="n">
-        <v>17.49331140533238</v>
+        <v>18.96469157654765</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.88734241080054</v>
+        <v>63.21792586285499</v>
       </c>
       <c r="D30" t="n">
-        <v>19.76151035944752</v>
+        <v>18.82275282895133</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>65.17387230545539</v>
+        <v>62.98030203524496</v>
       </c>
       <c r="D31" t="n">
-        <v>17.34875404287363</v>
+        <v>19.66034376049903</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.42457964593102</v>
+        <v>60.77504977897749</v>
       </c>
       <c r="D32" t="n">
-        <v>18.91534241175093</v>
+        <v>17.98491216207659</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>62.02950558313264</v>
+        <v>58.70909893587086</v>
       </c>
       <c r="D33" t="n">
-        <v>18.28107564453153</v>
+        <v>18.91658814360657</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.73561531961175</v>
+        <v>56.24786056213735</v>
       </c>
       <c r="D34" t="n">
-        <v>18.83651752701744</v>
+        <v>17.3968350572214</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.9879393239141</v>
+        <v>56.00740504187171</v>
       </c>
       <c r="D35" t="n">
-        <v>18.24558360626689</v>
+        <v>15.61246703027663</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.06784805041929</v>
+        <v>57.49851051453069</v>
       </c>
       <c r="D36" t="n">
-        <v>17.50185234906048</v>
+        <v>17.78546121008271</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.12960392238366</v>
+        <v>55.10889593733584</v>
       </c>
       <c r="D37" t="n">
-        <v>21.6488070025005</v>
+        <v>16.85375953504247</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.81310560288811</v>
+        <v>50.47330821076059</v>
       </c>
       <c r="D38" t="n">
-        <v>19.50983343171211</v>
+        <v>18.39982223481051</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.58301382594385</v>
+        <v>54.14912196255737</v>
       </c>
       <c r="D39" t="n">
-        <v>18.36386055393663</v>
+        <v>17.73128309173377</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.84490922438366</v>
+        <v>55.690957632155</v>
       </c>
       <c r="D40" t="n">
-        <v>16.67298823714182</v>
+        <v>19.31689563402512</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.10538757961289</v>
+        <v>53.70308907632322</v>
       </c>
       <c r="D41" t="n">
-        <v>19.5853327120787</v>
+        <v>19.27515285226466</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.97785261174747</v>
+        <v>50.65097800566748</v>
       </c>
       <c r="D42" t="n">
-        <v>18.37605485166748</v>
+        <v>19.3407516075913</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.25041847329037</v>
+        <v>53.45267050184473</v>
       </c>
       <c r="D43" t="n">
-        <v>19.9000271552005</v>
+        <v>17.93879324167159</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.93697960971802</v>
+        <v>46.51911176341043</v>
       </c>
       <c r="D44" t="n">
-        <v>19.71853898862292</v>
+        <v>19.17766309115033</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.59704464616701</v>
+        <v>51.3756266945207</v>
       </c>
       <c r="D45" t="n">
-        <v>19.1436460460209</v>
+        <v>17.99114930879463</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.76482414892266</v>
+        <v>43.59225259526016</v>
       </c>
       <c r="D46" t="n">
-        <v>16.8786453320773</v>
+        <v>19.55079276803731</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.12536889325009</v>
+        <v>45.41460899236564</v>
       </c>
       <c r="D47" t="n">
-        <v>17.65784714492585</v>
+        <v>17.69659961431523</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.25613509012523</v>
+        <v>43.28552827300044</v>
       </c>
       <c r="D48" t="n">
-        <v>20.05098966156133</v>
+        <v>18.81637126499817</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.14100392333245</v>
+        <v>42.70768475383133</v>
       </c>
       <c r="D49" t="n">
-        <v>20.36733037172801</v>
+        <v>16.81809593023824</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.77543241910112</v>
+        <v>42.01360998189865</v>
       </c>
       <c r="D50" t="n">
-        <v>18.71274765299991</v>
+        <v>19.46434786351611</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.66574002744973</v>
+        <v>39.06441621492611</v>
       </c>
       <c r="D51" t="n">
-        <v>19.89225830522851</v>
+        <v>17.04596649833166</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.91024709783334</v>
+        <v>40.90480575890462</v>
       </c>
       <c r="D52" t="n">
-        <v>18.14918839586289</v>
+        <v>20.27342733857347</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.38443920269356</v>
+        <v>41.21319505445587</v>
       </c>
       <c r="D53" t="n">
-        <v>17.42950207683965</v>
+        <v>19.29191534843693</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.69764835385335</v>
+        <v>40.01659822252429</v>
       </c>
       <c r="D54" t="n">
-        <v>17.70502913979904</v>
+        <v>18.62229955983992</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.57571582504343</v>
+        <v>35.780320707528</v>
       </c>
       <c r="D55" t="n">
-        <v>17.84540287934076</v>
+        <v>17.66023674442865</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.55033564766214</v>
+        <v>35.30928591552098</v>
       </c>
       <c r="D56" t="n">
-        <v>17.38663707554956</v>
+        <v>18.82862309951948</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.2489291346736</v>
+        <v>36.61103043145566</v>
       </c>
       <c r="D57" t="n">
-        <v>18.0992629812173</v>
+        <v>16.64248588914302</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.40480871597812</v>
+        <v>32.83640928755398</v>
       </c>
       <c r="D58" t="n">
-        <v>21.69853051941008</v>
+        <v>17.11748694333472</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.77922551042201</v>
+        <v>31.85162978821502</v>
       </c>
       <c r="D59" t="n">
-        <v>17.03552365691984</v>
+        <v>16.81485935843704</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.69269004765422</v>
+        <v>32.95345939501537</v>
       </c>
       <c r="D60" t="n">
-        <v>18.95309309545797</v>
+        <v>18.46442389144427</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.44623716332367</v>
+        <v>31.00544553588676</v>
       </c>
       <c r="D61" t="n">
-        <v>19.24610024522102</v>
+        <v>17.53045174259198</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.76673658082088</v>
+        <v>29.68916339293785</v>
       </c>
       <c r="D62" t="n">
-        <v>17.33772172720391</v>
+        <v>18.04481068814171</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.08767096270268</v>
+        <v>30.99534873887331</v>
       </c>
       <c r="D63" t="n">
-        <v>17.84481442636423</v>
+        <v>17.53870983247092</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.73155664547519</v>
+        <v>28.55089905868169</v>
       </c>
       <c r="D64" t="n">
-        <v>17.79692410213095</v>
+        <v>15.37420547692162</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>31.73485629604567</v>
+        <v>28.73207816362677</v>
       </c>
       <c r="D65" t="n">
-        <v>16.33112705252625</v>
+        <v>18.82732087391805</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.74065013642786</v>
+        <v>26.00235023270079</v>
       </c>
       <c r="D66" t="n">
-        <v>17.87071465471928</v>
+        <v>19.2818497503722</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.3322616203687</v>
+        <v>24.40915401988934</v>
       </c>
       <c r="D67" t="n">
-        <v>17.72156826859283</v>
+        <v>16.95685497207183</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.28945084409046</v>
+        <v>21.50655003341562</v>
       </c>
       <c r="D68" t="n">
-        <v>16.40889679915474</v>
+        <v>17.73253366512088</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.13625812001563</v>
+        <v>24.28399634390796</v>
       </c>
       <c r="D69" t="n">
-        <v>16.38309331471038</v>
+        <v>15.7343992530299</v>
       </c>
     </row>
   </sheetData>
